--- a/medicine/Enfance/Sarah_Fielding/Sarah_Fielding.xlsx
+++ b/medicine/Enfance/Sarah_Fielding/Sarah_Fielding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Fielding, née le 8 novembre 1710 à East Stour dans le Dorset et morte le 9 avril 1768 à Bath est une femme de lettres britannique, sœur du romancier Henry Fielding. Elle est l'auteure de  The Governess, or The Little Female Academy (La Gouvernante, ou la petite académie féminine) (1749), qui est le premier roman de langue anglaise spécialement destiné aux enfants[1], après avoir connu le succès avec son premier roman The Adventures of David Simple (1744)[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Fielding, née le 8 novembre 1710 à East Stour dans le Dorset et morte le 9 avril 1768 à Bath est une femme de lettres britannique, sœur du romancier Henry Fielding. Elle est l'auteure de  The Governess, or The Little Female Academy (La Gouvernante, ou la petite académie féminine) (1749), qui est le premier roman de langue anglaise spécialement destiné aux enfants, après avoir connu le succès avec son premier roman The Adventures of David Simple (1744),.
 </t>
         </is>
       </c>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Carrière littéraire
-Réception
-Dans le monde littéraire anglo-saxon, elle est longtemps restée dans l'ombre de son frère Henry, avec qui elle entretenait une relation filiale particulière[4].
-Dans le monde littéraire francophone, Sarah Fielding a longtemps été considérée comme un auteur mineur par la critique[5]. 
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le monde littéraire anglo-saxon, elle est longtemps restée dans l'ombre de son frère Henry, avec qui elle entretenait une relation filiale particulière.
+Dans le monde littéraire francophone, Sarah Fielding a longtemps été considérée comme un auteur mineur par la critique. 
 </t>
         </is>
       </c>
@@ -548,14 +563,124 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres non fictionnelles
-Deux traductions démontrent la culture de l'auteure, les Mémorables de Xénophon et la Défense de Socrate (1762). Un autre texte non fictionnel, Remarks on Clarissa (1749) annonce la dimension morale des romans[5].
-Littérature enfantine
-Les livres pour enfants commencent à paraître en Angleterre à partir de 1740 mais ne connaissent un succès que dans les années 1780. Sarah Fielding est considérée comme une des pionnières avec The Governess or Little Female Academy (1749). Les histoires se déroulent dans une école et rassemblent des enfants autour de leur gouvernante[6].
-Romans
-Les autres œuvres de Sarah Fielding peuvent être analysées sous deux angles d'après la critique littéraire Sylvie Auffret-Pignot: forme romanesque et discours moraliste d'une part, les destinées féminines d'autre part[5].
-Liste d'œuvres de Sarah Fielding
-Titres originaux en anglais, par ordre chronologique de parution :
+          <t>Œuvres non fictionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux traductions démontrent la culture de l'auteure, les Mémorables de Xénophon et la Défense de Socrate (1762). Un autre texte non fictionnel, Remarks on Clarissa (1749) annonce la dimension morale des romans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah_Fielding</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Fielding</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature enfantine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les livres pour enfants commencent à paraître en Angleterre à partir de 1740 mais ne connaissent un succès que dans les années 1780. Sarah Fielding est considérée comme une des pionnières avec The Governess or Little Female Academy (1749). Les histoires se déroulent dans une école et rassemblent des enfants autour de leur gouvernante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarah_Fielding</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Fielding</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les autres œuvres de Sarah Fielding peuvent être analysées sous deux angles d'après la critique littéraire Sylvie Auffret-Pignot: forme romanesque et discours moraliste d'une part, les destinées féminines d'autre part.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarah_Fielding</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Fielding</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'œuvres de Sarah Fielding</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Titres originaux en anglais, par ordre chronologique de parution :
 1744 - The Adventures of David Simple
 1747 - Familiar Letters between the Principal Characters in David Simple
 1749 - The Governess, or The Little Female Academy
